--- a/schemas/cohorts.xlsx
+++ b/schemas/cohorts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246938DE-BE11-9C45-88C3-5B4E9A4F443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB72DE2-8A1D-F34A-AFCF-CB624F7C8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="15240" windowHeight="16280" xr2:uid="{32A38FC8-A576-064A-8638-175D483CA5B3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>cohortDataTypes_id</t>
   </si>
@@ -274,6 +274,66 @@
     <t>collectionEvents_eventTimeline_distribution</t>
   </si>
   <si>
+    <t>cohortSize</t>
+  </si>
+  <si>
+    <t>cohortType</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CINECA_synthetic_cohort_UK1</t>
+  </si>
+  <si>
+    <t>NCIT:C16576</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>GAZ:00150372</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>CINECA synthetic cohort UK1</t>
+  </si>
+  <si>
+    <t>exclusionCriteria_ageRange_end_iso8601duration</t>
+  </si>
+  <si>
+    <t>exclusionCriteria_ageRange_start_iso8601duration</t>
+  </si>
+  <si>
+    <t>exclusionCriteria_type_availability</t>
+  </si>
+  <si>
+    <t>exclusionCriteria_type_availabilityCount</t>
+  </si>
+  <si>
+    <t>inclusionCriteria_ageRange_end_iso8601duration</t>
+  </si>
+  <si>
+    <t>inclusionCriteria_ageRange_start_iso8601duration</t>
+  </si>
+  <si>
+    <t>inclusionCriteria_type_availability</t>
+  </si>
+  <si>
+    <t>inclusionCriteria_type_availabilityCount</t>
+  </si>
+  <si>
+    <t>P65Y</t>
+  </si>
+  <si>
+    <t>P18Y</t>
+  </si>
+  <si>
     <r>
       <t>{</t>
     </r>
@@ -293,7 +353,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>ethnicities</t>
+      <t>diseases</t>
     </r>
     <r>
       <rPr>
@@ -330,7 +390,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>African</t>
+      <t>acute bronchitis</t>
     </r>
     <r>
       <rPr>
@@ -349,7 +409,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>119</t>
+      <t>121</t>
     </r>
     <r>
       <rPr>
@@ -367,7 +427,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Any other Asian background</t>
+      <t>agranulocytosis</t>
     </r>
     <r>
       <rPr>
@@ -386,7 +446,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>120</t>
+      <t>111</t>
     </r>
     <r>
       <rPr>
@@ -404,7 +464,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Any other Black background</t>
+      <t>asthma</t>
     </r>
     <r>
       <rPr>
@@ -423,7 +483,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>104</t>
+      <t>134</t>
     </r>
     <r>
       <rPr>
@@ -441,7 +501,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Any other mixed background</t>
+      <t>bipolar affective disorder</t>
     </r>
     <r>
       <rPr>
@@ -460,7 +520,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>92</t>
+      <t>134</t>
     </r>
     <r>
       <rPr>
@@ -478,7 +538,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Any other white background</t>
+      <t>cardiomyopathy</t>
     </r>
     <r>
       <rPr>
@@ -497,7 +557,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>114</t>
+      <t>133</t>
     </r>
     <r>
       <rPr>
@@ -515,7 +575,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Asian or Asian British</t>
+      <t>dental caries</t>
     </r>
     <r>
       <rPr>
@@ -534,6 +594,302 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
+      <t>139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>eating disorders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>fibrosis and cirrhosis of liver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>gastro-oesophageal reflux disease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>haemorrhoids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>influenza due to certain identified influenza virus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>135</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>insulin-dependent diabetes mellitus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>iron deficiency anaemia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>multiple sclerosis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF66CCFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
       <t>125</t>
     </r>
     <r>
@@ -552,7 +908,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Bangladeshi</t>
+      <t>obesity</t>
     </r>
     <r>
       <rPr>
@@ -571,7 +927,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>96</t>
+      <t>136</t>
     </r>
     <r>
       <rPr>
@@ -589,7 +945,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Black or Black British</t>
+      <t>sarcoidosis</t>
     </r>
     <r>
       <rPr>
@@ -608,7 +964,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>131</t>
+      <t>136</t>
     </r>
     <r>
       <rPr>
@@ -626,7 +982,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>British</t>
+      <t>schizophrenia</t>
     </r>
     <r>
       <rPr>
@@ -645,7 +1001,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>114</t>
+      <t>138</t>
     </r>
     <r>
       <rPr>
@@ -663,7 +1019,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Caribbean</t>
+      <t>thyroiditis</t>
     </r>
     <r>
       <rPr>
@@ -682,7 +1038,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>127</t>
+      <t>141</t>
     </r>
     <r>
       <rPr>
@@ -700,7 +1056,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Chinese</t>
+      <t>varicose veins of lower extremities</t>
     </r>
     <r>
       <rPr>
@@ -719,1164 +1075,25 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>Indian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>Irish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>127</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>Other ethnic group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>116</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pakistani</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>115</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>White</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>105</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>White and Asian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>114</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>White and Black African</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>115</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>White and Black Caribbean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>132</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>diseases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>acute bronchitis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>121</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>agranulocytosis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>asthma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>134</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>bipolar affective disorder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>134</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardiomyopathy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>133</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>dental caries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
       <t>139</t>
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>eating disorders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>134</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>fibrosis and cirrhosis of liver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>132</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>gastro-oesophageal reflux disease</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>haemorrhoids</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>127</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>influenza due to certain identified influenza virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>135</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>insulin-dependent diabetes mellitus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>165</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>iron deficiency anaemia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>142</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>multiple sclerosis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>125</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>obesity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>136</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>sarcoidosis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>136</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>schizophrenia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>138</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>thyroiditis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>141</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>,"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>varicose veins of lower extremities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF66CCFF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>139</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFB6B6B6"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>cohortSize</t>
-  </si>
-  <si>
-    <t>cohortType</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>CINECA_synthetic_cohort_UK1</t>
-  </si>
-  <si>
-    <t>NCIT:C16576</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>GAZ:00150372</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>CINECA synthetic cohort UK1</t>
-  </si>
-  <si>
-    <t>exclusionCriteria_ageRange_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>exclusionCriteria_ageRange_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>exclusionCriteria_type_availability</t>
-  </si>
-  <si>
-    <t>exclusionCriteria_type_availabilityCount</t>
-  </si>
-  <si>
-    <t>inclusionCriteria_ageRange_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>inclusionCriteria_ageRange_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>inclusionCriteria_type_availability</t>
-  </si>
-  <si>
-    <t>inclusionCriteria_type_availabilityCount</t>
-  </si>
-  <si>
-    <t>P65Y</t>
-  </si>
-  <si>
-    <t>P18Y</t>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>}}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1916,6 +1133,18 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1937,12 +1166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2257,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB009C-9C23-D249-BBE3-2FFBA124530C}">
-  <dimension ref="A1:CN2"/>
+  <dimension ref="A1:CN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CN2" sqref="CN2"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BJ1" sqref="BJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,10 +1509,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2357,10 +1587,10 @@
         <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG1" t="s">
         <v>20</v>
@@ -2441,19 +1671,19 @@
         <v>45</v>
       </c>
       <c r="BG1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>94</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>96</v>
       </c>
       <c r="BL1" t="s">
         <v>46</v>
@@ -2531,13 +1761,13 @@
         <v>70</v>
       </c>
       <c r="CL1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CM1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CN1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:92" ht="18" x14ac:dyDescent="0.25">
@@ -2549,7 +1779,7 @@
         <v>1705</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -2557,47 +1787,120 @@
       <c r="Q2" s="1">
         <v>2287</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI2" s="4" t="s">
+      <c r="R2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BW2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BJ2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BY2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="CN2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BU2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BX2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="O16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O22" s="5"/>
+      <c r="R22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/schemas/cohorts.xlsx
+++ b/schemas/cohorts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB72DE2-8A1D-F34A-AFCF-CB624F7C8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA60798-246D-CF43-AFA8-435F7E30DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="15240" windowHeight="16280" xr2:uid="{32A38FC8-A576-064A-8638-175D483CA5B3}"/>
   </bookViews>
@@ -289,12 +289,6 @@
     <t>CINECA_synthetic_cohort_UK1</t>
   </si>
   <si>
-    <t>NCIT:C16576</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>GAZ:00150372</t>
   </si>
   <si>
@@ -1087,6 +1081,12 @@
       </rPr>
       <t>}}</t>
     </r>
+  </si>
+  <si>
+    <t>NCIT:C16576,NCIT:C20197</t>
+  </si>
+  <si>
+    <t>female,male</t>
   </si>
 </sst>
 </file>
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB009C-9C23-D249-BBE3-2FFBA124530C}">
   <dimension ref="A1:CN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BX3" sqref="BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1587,10 +1587,10 @@
         <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG1" t="s">
         <v>20</v>
@@ -1671,19 +1671,19 @@
         <v>45</v>
       </c>
       <c r="BG1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BH1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BI1" t="s">
         <v>81</v>
       </c>
       <c r="BJ1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BK1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BL1" t="s">
         <v>46</v>
@@ -1761,10 +1761,10 @@
         <v>70</v>
       </c>
       <c r="CL1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="CM1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CN1" t="s">
         <v>82</v>
@@ -1779,7 +1779,7 @@
         <v>1705</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -1788,35 +1788,35 @@
         <v>2287</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BI2" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="3"/>
       <c r="BU2" s="3"/>
       <c r="BW2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.2">
